--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,29 +461,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>双一科技</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>sz300690</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>19.23</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>37075</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>7164</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,44 +475,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E2" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F2" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G2" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>双一科技</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>sz300690</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>19.23</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>37075</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>7164</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.59</v>
+        <v>18.24</v>
       </c>
       <c r="E2" t="n">
-        <v>24676</v>
+        <v>46753</v>
       </c>
       <c r="F2" t="n">
-        <v>4585</v>
+        <v>8756</v>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,44 +504,102 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.72</v>
+        <v>18.81</v>
       </c>
       <c r="E3" t="n">
-        <v>29487</v>
+        <v>24773</v>
       </c>
       <c r="F3" t="n">
-        <v>5610</v>
+        <v>4628</v>
       </c>
       <c r="G3" t="n">
-        <v>2.69</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24676</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4585</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>双一科技</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>sz300690</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D6" t="n">
         <v>19.23</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6" t="n">
         <v>37075</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F6" t="n">
         <v>7164</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E2" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F2" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G2" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E3" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F3" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G3" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E4" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F4" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,44 +562,73 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E5" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F5" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G5" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>双一科技</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>sz300690</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>19.23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>37075</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>7164</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.97</v>
+        <v>18.99</v>
       </c>
       <c r="E2" t="n">
-        <v>39034</v>
+        <v>33353</v>
       </c>
       <c r="F2" t="n">
-        <v>7162</v>
+        <v>6302</v>
       </c>
       <c r="G2" t="n">
-        <v>3.57</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.24</v>
+        <v>18.46</v>
       </c>
       <c r="E3" t="n">
-        <v>46753</v>
+        <v>20714</v>
       </c>
       <c r="F3" t="n">
-        <v>8756</v>
+        <v>3821</v>
       </c>
       <c r="G3" t="n">
-        <v>4.27</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.81</v>
+        <v>18.46</v>
       </c>
       <c r="E4" t="n">
-        <v>24773</v>
+        <v>22754</v>
       </c>
       <c r="F4" t="n">
-        <v>4628</v>
+        <v>4199</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.59</v>
+        <v>18.38</v>
       </c>
       <c r="E5" t="n">
-        <v>24676</v>
+        <v>21515</v>
       </c>
       <c r="F5" t="n">
-        <v>4585</v>
+        <v>3897</v>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,44 +591,189 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.72</v>
+        <v>17.93</v>
       </c>
       <c r="E6" t="n">
-        <v>29487</v>
+        <v>23145</v>
       </c>
       <c r="F6" t="n">
-        <v>5610</v>
+        <v>4176</v>
       </c>
       <c r="G6" t="n">
-        <v>2.69</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39034</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7162</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46753</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8756</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24773</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4628</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24676</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4585</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>19.23</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E12" t="n">
         <v>37075</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F12" t="n">
         <v>7164</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G12" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E2" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F2" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E3" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F3" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -536,19 +536,19 @@
         <v>18.46</v>
       </c>
       <c r="E4" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F4" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E5" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F5" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E6" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F6" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G6" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E7" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F7" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G7" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E8" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F8" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G8" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E9" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F9" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E10" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F10" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,44 +736,73 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E11" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F11" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G11" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>19.23</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>37075</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>7164</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E2" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F2" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E3" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F3" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E4" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F4" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -565,19 +565,19 @@
         <v>18.46</v>
       </c>
       <c r="E5" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F5" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E6" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F6" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G6" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E7" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F7" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G7" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E8" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F8" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G8" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E9" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F9" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G9" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E10" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F10" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E11" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F11" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,44 +765,73 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E12" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F12" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G12" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>19.23</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>37075</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>7164</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E2" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F2" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G2" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E3" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F3" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E4" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F4" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E5" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F5" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G5" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -594,19 +594,19 @@
         <v>18.46</v>
       </c>
       <c r="E6" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F6" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E7" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F7" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G7" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E8" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F8" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G8" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E9" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F9" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G9" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E10" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F10" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G10" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E11" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F11" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E12" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F12" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,44 +794,73 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E13" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F13" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G13" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>19.23</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>37075</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>7164</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.41</v>
+        <v>18.25</v>
       </c>
       <c r="E2" t="n">
-        <v>36399</v>
+        <v>29369</v>
       </c>
       <c r="F2" t="n">
-        <v>6743</v>
+        <v>5314</v>
       </c>
       <c r="G2" t="n">
-        <v>3.33</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19.07</v>
+        <v>17.62</v>
       </c>
       <c r="E3" t="n">
-        <v>47147</v>
+        <v>23929</v>
       </c>
       <c r="F3" t="n">
-        <v>8817</v>
+        <v>4272</v>
       </c>
       <c r="G3" t="n">
-        <v>4.31</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.6</v>
+        <v>18.03</v>
       </c>
       <c r="E4" t="n">
-        <v>41641</v>
+        <v>30627</v>
       </c>
       <c r="F4" t="n">
-        <v>7768</v>
+        <v>5597</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.99</v>
+        <v>18.06</v>
       </c>
       <c r="E5" t="n">
-        <v>33353</v>
+        <v>26234</v>
       </c>
       <c r="F5" t="n">
-        <v>6302</v>
+        <v>4757</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.46</v>
+        <v>18.41</v>
       </c>
       <c r="E6" t="n">
-        <v>20714</v>
+        <v>36399</v>
       </c>
       <c r="F6" t="n">
-        <v>3821</v>
+        <v>6743</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.46</v>
+        <v>19.07</v>
       </c>
       <c r="E7" t="n">
-        <v>22754</v>
+        <v>47147</v>
       </c>
       <c r="F7" t="n">
-        <v>4199</v>
+        <v>8817</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.38</v>
+        <v>18.6</v>
       </c>
       <c r="E8" t="n">
-        <v>21515</v>
+        <v>41641</v>
       </c>
       <c r="F8" t="n">
-        <v>3897</v>
+        <v>7768</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.93</v>
+        <v>18.99</v>
       </c>
       <c r="E9" t="n">
-        <v>23145</v>
+        <v>33353</v>
       </c>
       <c r="F9" t="n">
-        <v>4176</v>
+        <v>6302</v>
       </c>
       <c r="G9" t="n">
-        <v>2.11</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.97</v>
+        <v>18.46</v>
       </c>
       <c r="E10" t="n">
-        <v>39034</v>
+        <v>20714</v>
       </c>
       <c r="F10" t="n">
-        <v>7162</v>
+        <v>3821</v>
       </c>
       <c r="G10" t="n">
-        <v>3.57</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.24</v>
+        <v>18.46</v>
       </c>
       <c r="E11" t="n">
-        <v>46753</v>
+        <v>22754</v>
       </c>
       <c r="F11" t="n">
-        <v>8756</v>
+        <v>4199</v>
       </c>
       <c r="G11" t="n">
-        <v>4.27</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.81</v>
+        <v>18.38</v>
       </c>
       <c r="E12" t="n">
-        <v>24773</v>
+        <v>21515</v>
       </c>
       <c r="F12" t="n">
-        <v>4628</v>
+        <v>3897</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.59</v>
+        <v>17.93</v>
       </c>
       <c r="E13" t="n">
-        <v>24676</v>
+        <v>23145</v>
       </c>
       <c r="F13" t="n">
-        <v>4585</v>
+        <v>4176</v>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,44 +823,160 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.72</v>
+        <v>17.97</v>
       </c>
       <c r="E14" t="n">
-        <v>29487</v>
+        <v>39034</v>
       </c>
       <c r="F14" t="n">
-        <v>5610</v>
+        <v>7162</v>
       </c>
       <c r="G14" t="n">
-        <v>2.69</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46753</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8756</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24773</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4628</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="E17" t="n">
+        <v>24676</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4585</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>19.23</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E19" t="n">
         <v>37075</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F19" t="n">
         <v>7164</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G19" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.41</v>
+        <v>18.03</v>
       </c>
       <c r="E2" t="n">
-        <v>36399</v>
+        <v>30627</v>
       </c>
       <c r="F2" t="n">
-        <v>6743</v>
+        <v>5597</v>
       </c>
       <c r="G2" t="n">
-        <v>3.33</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19.07</v>
+        <v>18.06</v>
       </c>
       <c r="E3" t="n">
-        <v>47147</v>
+        <v>26234</v>
       </c>
       <c r="F3" t="n">
-        <v>8817</v>
+        <v>4757</v>
       </c>
       <c r="G3" t="n">
-        <v>4.31</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.6</v>
+        <v>18.41</v>
       </c>
       <c r="E4" t="n">
-        <v>41641</v>
+        <v>36399</v>
       </c>
       <c r="F4" t="n">
-        <v>7768</v>
+        <v>6743</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.99</v>
+        <v>19.07</v>
       </c>
       <c r="E5" t="n">
-        <v>33353</v>
+        <v>47147</v>
       </c>
       <c r="F5" t="n">
-        <v>6302</v>
+        <v>8817</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.46</v>
+        <v>18.6</v>
       </c>
       <c r="E6" t="n">
-        <v>20714</v>
+        <v>41641</v>
       </c>
       <c r="F6" t="n">
-        <v>3821</v>
+        <v>7768</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E7" t="n">
-        <v>22754</v>
+        <v>33353</v>
       </c>
       <c r="F7" t="n">
-        <v>4199</v>
+        <v>6302</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E8" t="n">
-        <v>21515</v>
+        <v>20714</v>
       </c>
       <c r="F8" t="n">
-        <v>3897</v>
+        <v>3821</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.93</v>
+        <v>18.46</v>
       </c>
       <c r="E9" t="n">
-        <v>23145</v>
+        <v>22754</v>
       </c>
       <c r="F9" t="n">
-        <v>4176</v>
+        <v>4199</v>
       </c>
       <c r="G9" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.97</v>
+        <v>18.38</v>
       </c>
       <c r="E10" t="n">
-        <v>39034</v>
+        <v>21515</v>
       </c>
       <c r="F10" t="n">
-        <v>7162</v>
+        <v>3897</v>
       </c>
       <c r="G10" t="n">
-        <v>3.57</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.24</v>
+        <v>17.93</v>
       </c>
       <c r="E11" t="n">
-        <v>46753</v>
+        <v>23145</v>
       </c>
       <c r="F11" t="n">
-        <v>8756</v>
+        <v>4176</v>
       </c>
       <c r="G11" t="n">
-        <v>4.27</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.81</v>
+        <v>17.97</v>
       </c>
       <c r="E12" t="n">
-        <v>24773</v>
+        <v>39034</v>
       </c>
       <c r="F12" t="n">
-        <v>4628</v>
+        <v>7162</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.59</v>
+        <v>18.24</v>
       </c>
       <c r="E13" t="n">
-        <v>24676</v>
+        <v>46753</v>
       </c>
       <c r="F13" t="n">
-        <v>4585</v>
+        <v>8756</v>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,44 +823,102 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.72</v>
+        <v>18.81</v>
       </c>
       <c r="E14" t="n">
-        <v>29487</v>
+        <v>24773</v>
       </c>
       <c r="F14" t="n">
-        <v>5610</v>
+        <v>4628</v>
       </c>
       <c r="G14" t="n">
-        <v>2.69</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24676</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4585</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>19.23</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E17" t="n">
         <v>37075</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F17" t="n">
         <v>7164</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.99</v>
+        <v>18.03</v>
       </c>
       <c r="E2" t="n">
-        <v>33353</v>
+        <v>30627</v>
       </c>
       <c r="F2" t="n">
-        <v>6302</v>
+        <v>5597</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.46</v>
+        <v>18.06</v>
       </c>
       <c r="E3" t="n">
-        <v>20714</v>
+        <v>26234</v>
       </c>
       <c r="F3" t="n">
-        <v>3821</v>
+        <v>4757</v>
       </c>
       <c r="G3" t="n">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.46</v>
+        <v>18.41</v>
       </c>
       <c r="E4" t="n">
-        <v>22754</v>
+        <v>36399</v>
       </c>
       <c r="F4" t="n">
-        <v>4199</v>
+        <v>6743</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.38</v>
+        <v>19.07</v>
       </c>
       <c r="E5" t="n">
-        <v>21515</v>
+        <v>47147</v>
       </c>
       <c r="F5" t="n">
-        <v>3897</v>
+        <v>8817</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.93</v>
+        <v>18.6</v>
       </c>
       <c r="E6" t="n">
-        <v>23145</v>
+        <v>41641</v>
       </c>
       <c r="F6" t="n">
-        <v>4176</v>
+        <v>7768</v>
       </c>
       <c r="G6" t="n">
-        <v>2.11</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.97</v>
+        <v>18.99</v>
       </c>
       <c r="E7" t="n">
-        <v>39034</v>
+        <v>33353</v>
       </c>
       <c r="F7" t="n">
-        <v>7162</v>
+        <v>6302</v>
       </c>
       <c r="G7" t="n">
-        <v>3.57</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.24</v>
+        <v>18.46</v>
       </c>
       <c r="E8" t="n">
-        <v>46753</v>
+        <v>20714</v>
       </c>
       <c r="F8" t="n">
-        <v>8756</v>
+        <v>3821</v>
       </c>
       <c r="G8" t="n">
-        <v>4.27</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.81</v>
+        <v>18.46</v>
       </c>
       <c r="E9" t="n">
-        <v>24773</v>
+        <v>22754</v>
       </c>
       <c r="F9" t="n">
-        <v>4628</v>
+        <v>4199</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.59</v>
+        <v>18.38</v>
       </c>
       <c r="E10" t="n">
-        <v>24676</v>
+        <v>21515</v>
       </c>
       <c r="F10" t="n">
-        <v>4585</v>
+        <v>3897</v>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,44 +736,189 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.72</v>
+        <v>17.93</v>
       </c>
       <c r="E11" t="n">
-        <v>29487</v>
+        <v>23145</v>
       </c>
       <c r="F11" t="n">
-        <v>5610</v>
+        <v>4176</v>
       </c>
       <c r="G11" t="n">
-        <v>2.69</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="E12" t="n">
+        <v>39034</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7162</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>46753</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8756</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24773</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4628</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24676</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4585</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>19.23</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E17" t="n">
         <v>37075</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F17" t="n">
         <v>7164</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G17" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E2" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F2" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G2" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E3" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F3" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G3" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E4" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F4" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E5" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F5" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E6" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F6" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G6" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E7" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F7" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G7" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E8" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F8" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E9" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F9" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E10" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F10" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G10" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -739,19 +739,19 @@
         <v>18.46</v>
       </c>
       <c r="E11" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F11" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E12" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F12" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E13" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F13" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G13" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E14" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F14" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G14" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E15" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F15" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G15" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E16" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F16" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E17" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F17" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,44 +939,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E18" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F18" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G18" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>19.23</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>37075</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>7164</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E2" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F2" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E3" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F3" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E4" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F4" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G4" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E5" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F5" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E6" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F6" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E7" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F7" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G7" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E8" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F8" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G8" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E9" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F9" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E10" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F10" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E11" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F11" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G11" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -768,19 +768,19 @@
         <v>18.46</v>
       </c>
       <c r="E12" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F12" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E13" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F13" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E14" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F14" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G14" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E15" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F15" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G15" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E16" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F16" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G16" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E17" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F17" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G17" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E18" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F18" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,44 +968,73 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E19" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F19" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G19" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29487</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5610</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>双一科技</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sz300690</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>双一科技</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sz300690</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>19.23</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E21" t="n">
         <v>37075</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>7164</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>3.39</v>
       </c>
     </row>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E2" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F2" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E3" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F3" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E4" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F4" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G4" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E5" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F5" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G5" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E6" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F6" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E7" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F7" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E8" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F8" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G8" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E9" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F9" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G9" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E10" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F10" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E11" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F11" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E12" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F12" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -797,19 +797,19 @@
         <v>18.46</v>
       </c>
       <c r="E13" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F13" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G13" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E14" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F14" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G14" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E15" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F15" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G15" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E16" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F16" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G16" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E17" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F17" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G17" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E18" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F18" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G18" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E19" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F19" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E20" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F20" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G20" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19.23</v>
+        <v>18.72</v>
       </c>
       <c r="E21" t="n">
-        <v>37075</v>
+        <v>29487</v>
       </c>
       <c r="F21" t="n">
-        <v>7164</v>
+        <v>5610</v>
       </c>
       <c r="G21" t="n">
-        <v>3.39</v>
+        <v>2.69</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.39</v>
+        <v>18.02</v>
       </c>
       <c r="E2" t="n">
-        <v>21049</v>
+        <v>26830</v>
       </c>
       <c r="F2" t="n">
-        <v>3695</v>
+        <v>4756</v>
       </c>
       <c r="G2" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E3" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F3" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E4" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F4" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E5" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F5" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E6" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F6" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G6" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E7" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F7" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E8" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F8" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E9" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F9" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G9" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E10" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F10" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G10" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E11" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F11" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E12" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F12" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E13" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F13" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G13" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -826,19 +826,19 @@
         <v>18.46</v>
       </c>
       <c r="E14" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F14" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E15" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F15" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G15" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E16" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F16" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G16" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E17" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F17" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G17" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E18" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F18" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G18" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E19" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F19" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E20" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F20" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.72</v>
+        <v>18.59</v>
       </c>
       <c r="E21" t="n">
-        <v>29487</v>
+        <v>24676</v>
       </c>
       <c r="F21" t="n">
-        <v>5610</v>
+        <v>4585</v>
       </c>
       <c r="G21" t="n">
-        <v>2.69</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.02</v>
+        <v>17.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26830</v>
+        <v>22794</v>
       </c>
       <c r="F2" t="n">
-        <v>4756</v>
+        <v>4082</v>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.39</v>
+        <v>18.02</v>
       </c>
       <c r="E3" t="n">
-        <v>21049</v>
+        <v>26830</v>
       </c>
       <c r="F3" t="n">
-        <v>3695</v>
+        <v>4756</v>
       </c>
       <c r="G3" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E4" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F4" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E5" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F5" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E6" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F6" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E7" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F7" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G7" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E8" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F8" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E9" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F9" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E10" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F10" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G10" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E11" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F11" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G11" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E12" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F12" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E13" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F13" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E14" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F14" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G14" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -855,19 +855,19 @@
         <v>18.46</v>
       </c>
       <c r="E15" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F15" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G15" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E16" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F16" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G16" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E17" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F17" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G17" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E18" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F18" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G18" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E19" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F19" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G19" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E20" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F20" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G20" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.59</v>
+        <v>18.81</v>
       </c>
       <c r="E21" t="n">
-        <v>24676</v>
+        <v>24773</v>
       </c>
       <c r="F21" t="n">
-        <v>4585</v>
+        <v>4628</v>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.7</v>
+        <v>17.49</v>
       </c>
       <c r="E2" t="n">
-        <v>22794</v>
+        <v>30531</v>
       </c>
       <c r="F2" t="n">
-        <v>4082</v>
+        <v>5241</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.02</v>
+        <v>17.7</v>
       </c>
       <c r="E3" t="n">
-        <v>26830</v>
+        <v>22794</v>
       </c>
       <c r="F3" t="n">
-        <v>4756</v>
+        <v>4082</v>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.39</v>
+        <v>18.02</v>
       </c>
       <c r="E4" t="n">
-        <v>21049</v>
+        <v>26830</v>
       </c>
       <c r="F4" t="n">
-        <v>3695</v>
+        <v>4756</v>
       </c>
       <c r="G4" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E5" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F5" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E6" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F6" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E7" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F7" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G7" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E8" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F8" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G8" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E9" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F9" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E10" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F10" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E11" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F11" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G11" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E12" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F12" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G12" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E13" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F13" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E14" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F14" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G14" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E15" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F15" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G15" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -884,19 +884,19 @@
         <v>18.46</v>
       </c>
       <c r="E16" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F16" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E17" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F17" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G17" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E18" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F18" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G18" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E19" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F19" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G19" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E20" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F20" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G20" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.81</v>
+        <v>18.24</v>
       </c>
       <c r="E21" t="n">
-        <v>24773</v>
+        <v>46753</v>
       </c>
       <c r="F21" t="n">
-        <v>4628</v>
+        <v>8756</v>
       </c>
       <c r="G21" t="n">
-        <v>2.26</v>
+        <v>4.27</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.49</v>
+        <v>17.72</v>
       </c>
       <c r="E2" t="n">
-        <v>30531</v>
+        <v>24173</v>
       </c>
       <c r="F2" t="n">
-        <v>5241</v>
+        <v>4329</v>
       </c>
       <c r="G2" t="n">
-        <v>2.79</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.7</v>
+        <v>17.49</v>
       </c>
       <c r="E3" t="n">
-        <v>22794</v>
+        <v>30531</v>
       </c>
       <c r="F3" t="n">
-        <v>4082</v>
+        <v>5241</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.02</v>
+        <v>17.7</v>
       </c>
       <c r="E4" t="n">
-        <v>26830</v>
+        <v>22794</v>
       </c>
       <c r="F4" t="n">
-        <v>4756</v>
+        <v>4082</v>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.39</v>
+        <v>18.02</v>
       </c>
       <c r="E5" t="n">
-        <v>21049</v>
+        <v>26830</v>
       </c>
       <c r="F5" t="n">
-        <v>3695</v>
+        <v>4756</v>
       </c>
       <c r="G5" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E6" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F6" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E7" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F7" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E8" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F8" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G8" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E9" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F9" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G9" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E10" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F10" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E11" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F11" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E12" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F12" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G12" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E13" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F13" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G13" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E14" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F14" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E15" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F15" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E16" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F16" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G16" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -913,19 +913,19 @@
         <v>18.46</v>
       </c>
       <c r="E17" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F17" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E18" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F18" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G18" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E19" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F19" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G19" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E20" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F20" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G20" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.24</v>
+        <v>17.97</v>
       </c>
       <c r="E21" t="n">
-        <v>46753</v>
+        <v>39034</v>
       </c>
       <c r="F21" t="n">
-        <v>8756</v>
+        <v>7162</v>
       </c>
       <c r="G21" t="n">
-        <v>4.27</v>
+        <v>3.57</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.72</v>
+        <v>17.19</v>
       </c>
       <c r="E2" t="n">
-        <v>24173</v>
+        <v>17150</v>
       </c>
       <c r="F2" t="n">
-        <v>4329</v>
+        <v>2980</v>
       </c>
       <c r="G2" t="n">
-        <v>2.21</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.49</v>
+        <v>17.72</v>
       </c>
       <c r="E3" t="n">
-        <v>30531</v>
+        <v>24173</v>
       </c>
       <c r="F3" t="n">
-        <v>5241</v>
+        <v>4329</v>
       </c>
       <c r="G3" t="n">
-        <v>2.79</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.7</v>
+        <v>17.49</v>
       </c>
       <c r="E4" t="n">
-        <v>22794</v>
+        <v>30531</v>
       </c>
       <c r="F4" t="n">
-        <v>4082</v>
+        <v>5241</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18.02</v>
+        <v>17.7</v>
       </c>
       <c r="E5" t="n">
-        <v>26830</v>
+        <v>22794</v>
       </c>
       <c r="F5" t="n">
-        <v>4756</v>
+        <v>4082</v>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.39</v>
+        <v>18.02</v>
       </c>
       <c r="E6" t="n">
-        <v>21049</v>
+        <v>26830</v>
       </c>
       <c r="F6" t="n">
-        <v>3695</v>
+        <v>4756</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E7" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F7" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E8" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F8" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E9" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F9" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G9" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E10" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F10" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G10" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E11" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F11" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E12" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F12" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E13" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F13" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G13" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E14" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F14" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G14" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E15" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F15" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E16" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F16" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E17" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F17" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G17" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -942,19 +942,19 @@
         <v>18.46</v>
       </c>
       <c r="E18" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F18" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E19" t="n">
-        <v>21515</v>
+        <v>22754</v>
       </c>
       <c r="F19" t="n">
-        <v>3897</v>
+        <v>4199</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17.93</v>
+        <v>18.38</v>
       </c>
       <c r="E20" t="n">
-        <v>23145</v>
+        <v>21515</v>
       </c>
       <c r="F20" t="n">
-        <v>4176</v>
+        <v>3897</v>
       </c>
       <c r="G20" t="n">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17.97</v>
+        <v>17.93</v>
       </c>
       <c r="E21" t="n">
-        <v>39034</v>
+        <v>23145</v>
       </c>
       <c r="F21" t="n">
-        <v>7162</v>
+        <v>4176</v>
       </c>
       <c r="G21" t="n">
-        <v>3.57</v>
+        <v>2.11</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.19</v>
+        <v>17.15</v>
       </c>
       <c r="E2" t="n">
-        <v>17150</v>
+        <v>7278</v>
       </c>
       <c r="F2" t="n">
-        <v>2980</v>
+        <v>1244</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.72</v>
+        <v>16.98</v>
       </c>
       <c r="E3" t="n">
-        <v>24173</v>
+        <v>14516</v>
       </c>
       <c r="F3" t="n">
-        <v>4329</v>
+        <v>2459</v>
       </c>
       <c r="G3" t="n">
-        <v>2.21</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.49</v>
+        <v>17.19</v>
       </c>
       <c r="E4" t="n">
-        <v>30531</v>
+        <v>17150</v>
       </c>
       <c r="F4" t="n">
-        <v>5241</v>
+        <v>2980</v>
       </c>
       <c r="G4" t="n">
-        <v>2.79</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.7</v>
+        <v>17.72</v>
       </c>
       <c r="E5" t="n">
-        <v>22794</v>
+        <v>24173</v>
       </c>
       <c r="F5" t="n">
-        <v>4082</v>
+        <v>4329</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.02</v>
+        <v>17.49</v>
       </c>
       <c r="E6" t="n">
-        <v>26830</v>
+        <v>30531</v>
       </c>
       <c r="F6" t="n">
-        <v>4756</v>
+        <v>5241</v>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.39</v>
+        <v>17.7</v>
       </c>
       <c r="E7" t="n">
-        <v>21049</v>
+        <v>22794</v>
       </c>
       <c r="F7" t="n">
-        <v>3695</v>
+        <v>4082</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.68</v>
+        <v>18.02</v>
       </c>
       <c r="E8" t="n">
-        <v>25142</v>
+        <v>26830</v>
       </c>
       <c r="F8" t="n">
-        <v>4436</v>
+        <v>4756</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18.07</v>
+        <v>17.39</v>
       </c>
       <c r="E9" t="n">
-        <v>19653</v>
+        <v>21049</v>
       </c>
       <c r="F9" t="n">
-        <v>3572</v>
+        <v>3695</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.25</v>
+        <v>17.68</v>
       </c>
       <c r="E10" t="n">
-        <v>29369</v>
+        <v>25142</v>
       </c>
       <c r="F10" t="n">
-        <v>5314</v>
+        <v>4436</v>
       </c>
       <c r="G10" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17.62</v>
+        <v>18.07</v>
       </c>
       <c r="E11" t="n">
-        <v>23929</v>
+        <v>19653</v>
       </c>
       <c r="F11" t="n">
-        <v>4272</v>
+        <v>3572</v>
       </c>
       <c r="G11" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.03</v>
+        <v>18.25</v>
       </c>
       <c r="E12" t="n">
-        <v>30627</v>
+        <v>29369</v>
       </c>
       <c r="F12" t="n">
-        <v>5597</v>
+        <v>5314</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.06</v>
+        <v>17.62</v>
       </c>
       <c r="E13" t="n">
-        <v>26234</v>
+        <v>23929</v>
       </c>
       <c r="F13" t="n">
-        <v>4757</v>
+        <v>4272</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.41</v>
+        <v>18.03</v>
       </c>
       <c r="E14" t="n">
-        <v>36399</v>
+        <v>30627</v>
       </c>
       <c r="F14" t="n">
-        <v>6743</v>
+        <v>5597</v>
       </c>
       <c r="G14" t="n">
-        <v>3.33</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19.07</v>
+        <v>18.06</v>
       </c>
       <c r="E15" t="n">
-        <v>47147</v>
+        <v>26234</v>
       </c>
       <c r="F15" t="n">
-        <v>8817</v>
+        <v>4757</v>
       </c>
       <c r="G15" t="n">
-        <v>4.31</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.6</v>
+        <v>18.41</v>
       </c>
       <c r="E16" t="n">
-        <v>41641</v>
+        <v>36399</v>
       </c>
       <c r="F16" t="n">
-        <v>7768</v>
+        <v>6743</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.99</v>
+        <v>19.07</v>
       </c>
       <c r="E17" t="n">
-        <v>33353</v>
+        <v>47147</v>
       </c>
       <c r="F17" t="n">
-        <v>6302</v>
+        <v>8817</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.46</v>
+        <v>18.6</v>
       </c>
       <c r="E18" t="n">
-        <v>20714</v>
+        <v>41641</v>
       </c>
       <c r="F18" t="n">
-        <v>3821</v>
+        <v>7768</v>
       </c>
       <c r="G18" t="n">
-        <v>1.89</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E19" t="n">
-        <v>22754</v>
+        <v>33353</v>
       </c>
       <c r="F19" t="n">
-        <v>4199</v>
+        <v>6302</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.38</v>
+        <v>18.46</v>
       </c>
       <c r="E20" t="n">
-        <v>21515</v>
+        <v>20714</v>
       </c>
       <c r="F20" t="n">
-        <v>3897</v>
+        <v>3821</v>
       </c>
       <c r="G20" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17.93</v>
+        <v>18.46</v>
       </c>
       <c r="E21" t="n">
-        <v>23145</v>
+        <v>22754</v>
       </c>
       <c r="F21" t="n">
-        <v>4176</v>
+        <v>4199</v>
       </c>
       <c r="G21" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.15</v>
+        <v>17.18</v>
       </c>
       <c r="E2" t="n">
-        <v>7278</v>
+        <v>14443</v>
       </c>
       <c r="F2" t="n">
-        <v>1244</v>
+        <v>2474</v>
       </c>
       <c r="G2" t="n">
-        <v>0.66</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.18</v>
+        <v>16.94</v>
       </c>
       <c r="E2" t="n">
-        <v>14443</v>
+        <v>13713</v>
       </c>
       <c r="F2" t="n">
-        <v>2474</v>
+        <v>2337</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.98</v>
+        <v>17.18</v>
       </c>
       <c r="E3" t="n">
-        <v>14516</v>
+        <v>14443</v>
       </c>
       <c r="F3" t="n">
-        <v>2459</v>
+        <v>2474</v>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.19</v>
+        <v>16.98</v>
       </c>
       <c r="E4" t="n">
-        <v>17150</v>
+        <v>14516</v>
       </c>
       <c r="F4" t="n">
-        <v>2980</v>
+        <v>2459</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.72</v>
+        <v>17.19</v>
       </c>
       <c r="E5" t="n">
-        <v>24173</v>
+        <v>17150</v>
       </c>
       <c r="F5" t="n">
-        <v>4329</v>
+        <v>2980</v>
       </c>
       <c r="G5" t="n">
-        <v>2.21</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.49</v>
+        <v>17.72</v>
       </c>
       <c r="E6" t="n">
-        <v>30531</v>
+        <v>24173</v>
       </c>
       <c r="F6" t="n">
-        <v>5241</v>
+        <v>4329</v>
       </c>
       <c r="G6" t="n">
-        <v>2.79</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.7</v>
+        <v>17.49</v>
       </c>
       <c r="E7" t="n">
-        <v>22794</v>
+        <v>30531</v>
       </c>
       <c r="F7" t="n">
-        <v>4082</v>
+        <v>5241</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.02</v>
+        <v>17.7</v>
       </c>
       <c r="E8" t="n">
-        <v>26830</v>
+        <v>22794</v>
       </c>
       <c r="F8" t="n">
-        <v>4756</v>
+        <v>4082</v>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.39</v>
+        <v>18.02</v>
       </c>
       <c r="E9" t="n">
-        <v>21049</v>
+        <v>26830</v>
       </c>
       <c r="F9" t="n">
-        <v>3695</v>
+        <v>4756</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E10" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F10" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E11" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F11" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E12" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F12" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E13" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F13" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G13" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E14" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F14" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E15" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F15" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E16" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F16" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G16" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E17" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F17" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G17" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E18" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F18" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E19" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F19" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E20" t="n">
-        <v>20714</v>
+        <v>33353</v>
       </c>
       <c r="F20" t="n">
-        <v>3821</v>
+        <v>6302</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1029,13 +1029,13 @@
         <v>18.46</v>
       </c>
       <c r="E21" t="n">
-        <v>22754</v>
+        <v>20714</v>
       </c>
       <c r="F21" t="n">
-        <v>4199</v>
+        <v>3821</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.18</v>
+        <v>17.28</v>
       </c>
       <c r="E2" t="n">
-        <v>14443</v>
+        <v>17996</v>
       </c>
       <c r="F2" t="n">
-        <v>2474</v>
+        <v>3120</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.98</v>
+        <v>16.94</v>
       </c>
       <c r="E3" t="n">
-        <v>14516</v>
+        <v>13713</v>
       </c>
       <c r="F3" t="n">
-        <v>2459</v>
+        <v>2337</v>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.19</v>
+        <v>17.18</v>
       </c>
       <c r="E4" t="n">
-        <v>17150</v>
+        <v>14443</v>
       </c>
       <c r="F4" t="n">
-        <v>2980</v>
+        <v>2474</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.72</v>
+        <v>16.98</v>
       </c>
       <c r="E5" t="n">
-        <v>24173</v>
+        <v>14516</v>
       </c>
       <c r="F5" t="n">
-        <v>4329</v>
+        <v>2459</v>
       </c>
       <c r="G5" t="n">
-        <v>2.21</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.49</v>
+        <v>17.19</v>
       </c>
       <c r="E6" t="n">
-        <v>30531</v>
+        <v>17150</v>
       </c>
       <c r="F6" t="n">
-        <v>5241</v>
+        <v>2980</v>
       </c>
       <c r="G6" t="n">
-        <v>2.79</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.7</v>
+        <v>17.72</v>
       </c>
       <c r="E7" t="n">
-        <v>22794</v>
+        <v>24173</v>
       </c>
       <c r="F7" t="n">
-        <v>4082</v>
+        <v>4329</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.02</v>
+        <v>17.49</v>
       </c>
       <c r="E8" t="n">
-        <v>26830</v>
+        <v>30531</v>
       </c>
       <c r="F8" t="n">
-        <v>4756</v>
+        <v>5241</v>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.39</v>
+        <v>17.7</v>
       </c>
       <c r="E9" t="n">
-        <v>21049</v>
+        <v>22794</v>
       </c>
       <c r="F9" t="n">
-        <v>3695</v>
+        <v>4082</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17.68</v>
+        <v>18.02</v>
       </c>
       <c r="E10" t="n">
-        <v>25142</v>
+        <v>26830</v>
       </c>
       <c r="F10" t="n">
-        <v>4436</v>
+        <v>4756</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>18.07</v>
+        <v>17.39</v>
       </c>
       <c r="E11" t="n">
-        <v>19653</v>
+        <v>21049</v>
       </c>
       <c r="F11" t="n">
-        <v>3572</v>
+        <v>3695</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.25</v>
+        <v>17.68</v>
       </c>
       <c r="E12" t="n">
-        <v>29369</v>
+        <v>25142</v>
       </c>
       <c r="F12" t="n">
-        <v>5314</v>
+        <v>4436</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17.62</v>
+        <v>18.07</v>
       </c>
       <c r="E13" t="n">
-        <v>23929</v>
+        <v>19653</v>
       </c>
       <c r="F13" t="n">
-        <v>4272</v>
+        <v>3572</v>
       </c>
       <c r="G13" t="n">
-        <v>2.19</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.03</v>
+        <v>18.25</v>
       </c>
       <c r="E14" t="n">
-        <v>30627</v>
+        <v>29369</v>
       </c>
       <c r="F14" t="n">
-        <v>5597</v>
+        <v>5314</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18.06</v>
+        <v>17.62</v>
       </c>
       <c r="E15" t="n">
-        <v>26234</v>
+        <v>23929</v>
       </c>
       <c r="F15" t="n">
-        <v>4757</v>
+        <v>4272</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.41</v>
+        <v>18.03</v>
       </c>
       <c r="E16" t="n">
-        <v>36399</v>
+        <v>30627</v>
       </c>
       <c r="F16" t="n">
-        <v>6743</v>
+        <v>5597</v>
       </c>
       <c r="G16" t="n">
-        <v>3.33</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19.07</v>
+        <v>18.06</v>
       </c>
       <c r="E17" t="n">
-        <v>47147</v>
+        <v>26234</v>
       </c>
       <c r="F17" t="n">
-        <v>8817</v>
+        <v>4757</v>
       </c>
       <c r="G17" t="n">
-        <v>4.31</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.6</v>
+        <v>18.41</v>
       </c>
       <c r="E18" t="n">
-        <v>41641</v>
+        <v>36399</v>
       </c>
       <c r="F18" t="n">
-        <v>7768</v>
+        <v>6743</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.99</v>
+        <v>19.07</v>
       </c>
       <c r="E19" t="n">
-        <v>33353</v>
+        <v>47147</v>
       </c>
       <c r="F19" t="n">
-        <v>6302</v>
+        <v>8817</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.46</v>
+        <v>18.6</v>
       </c>
       <c r="E20" t="n">
-        <v>20714</v>
+        <v>41641</v>
       </c>
       <c r="F20" t="n">
-        <v>3821</v>
+        <v>7768</v>
       </c>
       <c r="G20" t="n">
-        <v>1.89</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.46</v>
+        <v>18.99</v>
       </c>
       <c r="E21" t="n">
-        <v>22754</v>
+        <v>33353</v>
       </c>
       <c r="F21" t="n">
-        <v>4199</v>
+        <v>6302</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300690.xlsx
+++ b/gengxiang/data/sz300690.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.28</v>
+        <v>17.44</v>
       </c>
       <c r="E2" t="n">
-        <v>17996</v>
+        <v>18254</v>
       </c>
       <c r="F2" t="n">
-        <v>3120</v>
+        <v>3186</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.94</v>
+        <v>17.28</v>
       </c>
       <c r="E3" t="n">
-        <v>13713</v>
+        <v>17996</v>
       </c>
       <c r="F3" t="n">
-        <v>2337</v>
+        <v>3120</v>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.18</v>
+        <v>16.94</v>
       </c>
       <c r="E4" t="n">
-        <v>14443</v>
+        <v>13713</v>
       </c>
       <c r="F4" t="n">
-        <v>2474</v>
+        <v>2337</v>
       </c>
       <c r="G4" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.98</v>
+        <v>17.18</v>
       </c>
       <c r="E5" t="n">
-        <v>14516</v>
+        <v>14443</v>
       </c>
       <c r="F5" t="n">
-        <v>2459</v>
+        <v>2474</v>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.19</v>
+        <v>16.98</v>
       </c>
       <c r="E6" t="n">
-        <v>17150</v>
+        <v>14516</v>
       </c>
       <c r="F6" t="n">
-        <v>2980</v>
+        <v>2459</v>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.72</v>
+        <v>17.19</v>
       </c>
       <c r="E7" t="n">
-        <v>24173</v>
+        <v>17150</v>
       </c>
       <c r="F7" t="n">
-        <v>4329</v>
+        <v>2980</v>
       </c>
       <c r="G7" t="n">
-        <v>2.21</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.49</v>
+        <v>17.72</v>
       </c>
       <c r="E8" t="n">
-        <v>30531</v>
+        <v>24173</v>
       </c>
       <c r="F8" t="n">
-        <v>5241</v>
+        <v>4329</v>
       </c>
       <c r="G8" t="n">
-        <v>2.79</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.7</v>
+        <v>17.49</v>
       </c>
       <c r="E9" t="n">
-        <v>22794</v>
+        <v>30531</v>
       </c>
       <c r="F9" t="n">
-        <v>4082</v>
+        <v>5241</v>
       </c>
       <c r="G9" t="n">
-        <v>2.08</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18.02</v>
+        <v>17.7</v>
       </c>
       <c r="E10" t="n">
-        <v>26830</v>
+        <v>22794</v>
       </c>
       <c r="F10" t="n">
-        <v>4756</v>
+        <v>4082</v>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17.39</v>
+        <v>18.02</v>
       </c>
       <c r="E11" t="n">
-        <v>21049</v>
+        <v>26830</v>
       </c>
       <c r="F11" t="n">
-        <v>3695</v>
+        <v>4756</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17.68</v>
+        <v>17.39</v>
       </c>
       <c r="E12" t="n">
-        <v>25142</v>
+        <v>21049</v>
       </c>
       <c r="F12" t="n">
-        <v>4436</v>
+        <v>3695</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.07</v>
+        <v>17.68</v>
       </c>
       <c r="E13" t="n">
-        <v>19653</v>
+        <v>25142</v>
       </c>
       <c r="F13" t="n">
-        <v>3572</v>
+        <v>4436</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.25</v>
+        <v>18.07</v>
       </c>
       <c r="E14" t="n">
-        <v>29369</v>
+        <v>19653</v>
       </c>
       <c r="F14" t="n">
-        <v>5314</v>
+        <v>3572</v>
       </c>
       <c r="G14" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17.62</v>
+        <v>18.25</v>
       </c>
       <c r="E15" t="n">
-        <v>23929</v>
+        <v>29369</v>
       </c>
       <c r="F15" t="n">
-        <v>4272</v>
+        <v>5314</v>
       </c>
       <c r="G15" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.03</v>
+        <v>17.62</v>
       </c>
       <c r="E16" t="n">
-        <v>30627</v>
+        <v>23929</v>
       </c>
       <c r="F16" t="n">
-        <v>5597</v>
+        <v>4272</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.06</v>
+        <v>18.03</v>
       </c>
       <c r="E17" t="n">
-        <v>26234</v>
+        <v>30627</v>
       </c>
       <c r="F17" t="n">
-        <v>4757</v>
+        <v>5597</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18.41</v>
+        <v>18.06</v>
       </c>
       <c r="E18" t="n">
-        <v>36399</v>
+        <v>26234</v>
       </c>
       <c r="F18" t="n">
-        <v>6743</v>
+        <v>4757</v>
       </c>
       <c r="G18" t="n">
-        <v>3.33</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19.07</v>
+        <v>18.41</v>
       </c>
       <c r="E19" t="n">
-        <v>47147</v>
+        <v>36399</v>
       </c>
       <c r="F19" t="n">
-        <v>8817</v>
+        <v>6743</v>
       </c>
       <c r="G19" t="n">
-        <v>4.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>18.6</v>
+        <v>19.07</v>
       </c>
       <c r="E20" t="n">
-        <v>41641</v>
+        <v>47147</v>
       </c>
       <c r="F20" t="n">
-        <v>7768</v>
+        <v>8817</v>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.99</v>
+        <v>18.6</v>
       </c>
       <c r="E21" t="n">
-        <v>33353</v>
+        <v>41641</v>
       </c>
       <c r="F21" t="n">
-        <v>6302</v>
+        <v>7768</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
